--- a/www/IndicatorsPerCountry/Netherlands_GenderEqualityYearsofEducation_TerritorialRef_1946_2012_CCode_528.xlsx
+++ b/www/IndicatorsPerCountry/Netherlands_GenderEqualityYearsofEducation_TerritorialRef_1946_2012_CCode_528.xlsx
@@ -78,13 +78,13 @@
     <t>Carmichael, Sarah, Selin Dilli and Auke Rijpma (2015). Gender Equality Years of Education. http://hdl.handle.net/10622/OTHFUK, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_OTHFUK.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_OTHFUK.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_OTHFUK.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_OTHFUK.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_OTHFUK.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_OTHFUK.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Netherlands_GenderEqualityYearsofEducation_TerritorialRef_1946_2012_CCode_528.xlsx
+++ b/www/IndicatorsPerCountry/Netherlands_GenderEqualityYearsofEducation_TerritorialRef_1946_2012_CCode_528.xlsx
@@ -75,7 +75,7 @@
     <t>https://www.clio-infra.eu/IndicatorsPerCountry/Netherlands_GenderEqualityYearsofEducation_TerritorialRef_1946_2012_CCode_528.xlsx</t>
   </si>
   <si>
-    <t>Carmichael, Sarah, Selin Dilli and Auke Rijpma (2015). Gender Equality Years of Education. http://hdl.handle.net/10622/OTHFUK, accessed via the Clio Infra website.</t>
+    <t>Carmichael, Sarah, Selin Dilli, and Auke Rijpma (2015). Gender Equality Years of Education. http://hdl.handle.net/10622/OTHFUK, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_OTHFUK.xml</t>
